--- a/src/test/resources/unittesting/artifact/data/unitTest_expression_csv02.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_expression_csv02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="19">
   <si>
     <t>SSN</t>
   </si>
@@ -83,7 +83,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1317">
+  <fonts count="1368">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -8376,6 +8376,327 @@
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
       <u val="none"/>
     </font>
     <font>
@@ -9353,7 +9674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1297">
+  <cellXfs count="1348">
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13197,52 +13518,205 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="1300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1301" fillId="35" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1302" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1303" fillId="38" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="35" fontId="1301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1302" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="38" fontId="1303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1304" fillId="41" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1305" fillId="44" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="41" fontId="1304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="44" fontId="1305" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1306" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1307" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1308" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1309" fillId="50" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1310" fillId="41" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1311" fillId="53" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1312" fillId="53" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1313" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1314" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1315" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1316" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="1307" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="50" fontId="1309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="41" fontId="1310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="53" fontId="1311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="53" fontId="1312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="1313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="1314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="1315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="1316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="35" fontId="1317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1318" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="38" fontId="1319" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="41" fontId="1320" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="44" fontId="1321" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1322" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="1323" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="50" fontId="1325" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="59" fontId="1326" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="41" fontId="1327" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="53" fontId="1328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="53" fontId="1329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="1330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="1331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="1332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="1333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="35" fontId="1334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1335" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="38" fontId="1336" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="41" fontId="1337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="44" fontId="1338" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1339" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="1340" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="50" fontId="1342" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="59" fontId="1343" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="41" fontId="1344" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="53" fontId="1345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="53" fontId="1346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="1347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="1348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="1349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="1350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1351" fillId="35" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1353" fillId="38" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1354" fillId="41" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1355" fillId="44" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1357" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1359" fillId="50" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1360" fillId="59" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1361" fillId="41" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1362" fillId="53" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1363" fillId="53" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1364" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1365" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1366" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1367" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
